--- a/biology/Médecine/1454_en_santé_et_médecine/1454_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1454_en_santé_et_médecine/1454_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1454_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1454_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1454 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1454_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1454_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation à Gozo, à Malte, d'un hôpital qui, « d'abord destiné aux pèlerins, recevra dans sa plus grande extension cinquante femmes malades ainsi que des filles enceintes venues chercher refuge sous son toit à l'approche de la délivrance, et qui disposera d'autre part d'un tour d'abandon pour les bébés non désirés[1] ».
-Début de la construction de l'hôpital de Santa María (ca), fondé à Lérida en Catalogne par la reine Marie de Castille, comtesse de Barcelone, pour réunir sept établissements privés de la ville[2].
-Une maladrerie Saint-Nicolas-des-Champs, probablement fondée avant 1340 et qui est à l'origine de l'actuel établissement public local, est attestée à Vitteaux, en Bourgogne[3].
-Un hôpital est attesté à Boisseuil, en Limousin, et « signalé en ruines un siècle plus tard[4] ».
-Grâce à une donation de Thomas Beamond, la Worshipful Company of Salters (en) (« Compagnie des commerçants du sel ») fait construire à Londres la Salter's Almshouse, maison d'aumône destinée à l'accueil des six plus démunis parmi les pauvres travailleurs des métiers du sel[5].
-Fondation de la Guilde des chirurgiens de Danzig, en Poméranie[6].
-Un médecin attitré, assisté d'un barbier, est embauché pour l'année à l'hôpital du Pont-du-Rhône, futur Hôtel-Dieu de Lyon[7].
-Santa María Nuova, le plus grand des hôpitaux pour malades indigents de Florence, dispose de deux cent trente lits[8].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation à Gozo, à Malte, d'un hôpital qui, « d'abord destiné aux pèlerins, recevra dans sa plus grande extension cinquante femmes malades ainsi que des filles enceintes venues chercher refuge sous son toit à l'approche de la délivrance, et qui disposera d'autre part d'un tour d'abandon pour les bébés non désirés ».
+Début de la construction de l'hôpital de Santa María (ca), fondé à Lérida en Catalogne par la reine Marie de Castille, comtesse de Barcelone, pour réunir sept établissements privés de la ville.
+Une maladrerie Saint-Nicolas-des-Champs, probablement fondée avant 1340 et qui est à l'origine de l'actuel établissement public local, est attestée à Vitteaux, en Bourgogne.
+Un hôpital est attesté à Boisseuil, en Limousin, et « signalé en ruines un siècle plus tard ».
+Grâce à une donation de Thomas Beamond, la Worshipful Company of Salters (en) (« Compagnie des commerçants du sel ») fait construire à Londres la Salter's Almshouse, maison d'aumône destinée à l'accueil des six plus démunis parmi les pauvres travailleurs des métiers du sel.
+Fondation de la Guilde des chirurgiens de Danzig, en Poméranie.
+Un médecin attitré, assisté d'un barbier, est embauché pour l'année à l'hôpital du Pont-du-Rhône, futur Hôtel-Dieu de Lyon.
+Santa María Nuova, le plus grand des hôpitaux pour malades indigents de Florence, dispose de deux cent trente lits.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1454_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1454_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Retranscription, par un certain Étienne Beludet, d'un recueil de médecine, de chirurgie et d'astrologie comprenant un traité sur la saignée attribué à Jean Le Lièvre († 1418), « compilation d'éléments empruntés surtout à Rhazès, à Avicenne et à Lanfranc[9] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Retranscription, par un certain Étienne Beludet, d'un recueil de médecine, de chirurgie et d'astrologie comprenant un traité sur la saignée attribué à Jean Le Lièvre († 1418), « compilation d'éléments empruntés surtout à Rhazès, à Avicenne et à Lanfranc ».</t>
         </is>
       </c>
     </row>
